--- a/data/trans_orig/IP07C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A014FB4-36A9-4331-BBE8-234E1CF82E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{499BA4FB-31C0-42A5-AF31-CA1FA2108D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25C44553-96FE-4571-B391-0255B1BADFB2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{294BB6CC-409B-47C0-B0EA-C71C5C590FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="413">
   <si>
     <t>Menores según frecuencia de sentirse  alegre en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>67,71%</t>
   </si>
   <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>71,47%</t>
   </si>
   <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,1168 +106,1177 @@
     <t>27,72%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,87%</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83552B10-A92D-4DE8-B898-DC2AB20F8BB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB73E270-9C8B-46C6-94F6-0A2F0C22F3C7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1956,13 +1965,13 @@
         <v>613</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1971,13 +1980,13 @@
         <v>1931</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1986,19 +1995,19 @@
         <v>2544</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2010,10 +2019,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2025,10 +2034,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2040,10 +2049,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2067,13 @@
         <v>43224</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>68</v>
@@ -2073,13 +2082,13 @@
         <v>45285</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -2088,18 +2097,18 @@
         <v>88509</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2111,13 +2120,13 @@
         <v>142585</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -2126,13 +2135,13 @@
         <v>120387</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -2141,13 +2150,13 @@
         <v>262972</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2171,13 @@
         <v>66437</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>97</v>
@@ -2177,28 +2186,28 @@
         <v>64278</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>197</v>
       </c>
       <c r="N11" s="7">
-        <v>130714</v>
+        <v>130715</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2222,13 @@
         <v>6946</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -2228,13 +2237,13 @@
         <v>5184</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -2243,13 +2252,13 @@
         <v>12130</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2273,13 @@
         <v>680</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2279,13 +2288,13 @@
         <v>537</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2294,19 +2303,19 @@
         <v>1216</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -2315,13 +2324,13 @@
         <v>667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2333,10 +2342,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2345,13 +2354,13 @@
         <v>667</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2375,13 @@
         <v>217314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
         <v>285</v>
@@ -2381,33 +2390,33 @@
         <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407699</v>
+        <v>407700</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2419,13 +2428,13 @@
         <v>33164</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -2449,13 +2458,13 @@
         <v>62572</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,7 +2479,7 @@
         <v>12913</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>102</v>
@@ -2536,13 +2545,13 @@
         <v>4506</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2551,13 +2560,13 @@
         <v>6009</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2581,13 @@
         <v>802</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2590,10 +2599,10 @@
         <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2602,19 +2611,19 @@
         <v>802</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2623,13 +2632,13 @@
         <v>659</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2641,10 +2650,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2653,13 +2662,13 @@
         <v>659</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2683,13 @@
         <v>49040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -2689,13 +2698,13 @@
         <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
@@ -2704,13 +2713,13 @@
         <v>103287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2736,13 @@
         <v>205018</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>272</v>
@@ -2742,13 +2751,13 @@
         <v>183783</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>580</v>
@@ -2757,13 +2766,13 @@
         <v>388801</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2787,13 @@
         <v>91333</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -2793,13 +2802,13 @@
         <v>91996</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>276</v>
@@ -2808,13 +2817,13 @@
         <v>183330</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2838,13 @@
         <v>9807</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2844,13 +2853,13 @@
         <v>11669</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2859,13 +2868,13 @@
         <v>21477</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2889,13 @@
         <v>2095</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2895,13 +2904,13 @@
         <v>2467</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2910,19 +2919,19 @@
         <v>4562</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -2931,13 +2940,13 @@
         <v>1325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2949,10 +2958,10 @@
         <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2961,13 +2970,13 @@
         <v>1325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2991,13 @@
         <v>309578</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -2997,13 +3006,13 @@
         <v>289916</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>897</v>
@@ -3012,18 +3021,18 @@
         <v>599495</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3042,7 +3051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFEF916-C007-43D2-9E73-30F5D9B47385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01612062-6219-4A01-8614-44FD050B3FB3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3059,7 +3068,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3166,13 +3175,13 @@
         <v>26167</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -3181,13 +3190,13 @@
         <v>29860</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3196,13 +3205,13 @@
         <v>56027</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3226,13 @@
         <v>16897</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -3232,13 +3241,13 @@
         <v>20373</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3247,13 +3256,13 @@
         <v>37270</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3277,13 @@
         <v>651</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3283,13 +3292,13 @@
         <v>1392</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3298,10 +3307,10 @@
         <v>2044</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>190</v>
@@ -3337,10 +3346,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3349,19 +3358,19 @@
         <v>624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3370,13 +3379,13 @@
         <v>823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3388,10 +3397,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3400,13 +3409,13 @@
         <v>823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3430,13 @@
         <v>45162</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -3436,13 +3445,13 @@
         <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -3451,18 +3460,18 @@
         <v>96787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3474,13 +3483,13 @@
         <v>139295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -3489,13 +3498,13 @@
         <v>113288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>364</v>
@@ -3504,13 +3513,13 @@
         <v>252583</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3534,13 @@
         <v>77049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -3540,13 +3549,13 @@
         <v>76886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
@@ -3555,13 +3564,13 @@
         <v>153935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3585,13 @@
         <v>7216</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -3591,13 +3600,13 @@
         <v>6775</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -3606,13 +3615,13 @@
         <v>13991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3636,13 @@
         <v>580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3642,13 +3651,13 @@
         <v>2798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3657,19 +3666,19 @@
         <v>3378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -3678,13 +3687,13 @@
         <v>625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3696,10 +3705,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3708,13 +3717,13 @@
         <v>625</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3738,13 @@
         <v>224765</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
         <v>286</v>
@@ -3744,13 +3753,13 @@
         <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>614</v>
@@ -3759,18 +3768,18 @@
         <v>424513</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3782,13 +3791,13 @@
         <v>33369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3797,13 +3806,13 @@
         <v>39158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -3812,13 +3821,13 @@
         <v>72527</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3842,13 @@
         <v>20072</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3848,13 +3857,13 @@
         <v>17614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -3863,13 +3872,13 @@
         <v>37687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3893,13 @@
         <v>1989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3899,13 +3908,13 @@
         <v>2038</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -3914,13 +3923,13 @@
         <v>4026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3944,13 @@
         <v>722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3953,10 +3962,10 @@
         <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3965,19 +3974,19 @@
         <v>722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3989,10 +3998,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4001,13 +4010,13 @@
         <v>1991</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4016,13 +4025,13 @@
         <v>1991</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4046,13 @@
         <v>56152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -4052,13 +4061,13 @@
         <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -4067,13 +4076,13 @@
         <v>116953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4099,13 @@
         <v>198830</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>259</v>
@@ -4105,13 +4114,13 @@
         <v>182306</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>550</v>
@@ -4120,13 +4129,13 @@
         <v>381137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4150,13 @@
         <v>114019</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>163</v>
@@ -4156,13 +4165,13 @@
         <v>114874</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>326</v>
@@ -4171,13 +4180,13 @@
         <v>228892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4201,13 @@
         <v>9856</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -4207,13 +4216,13 @@
         <v>10205</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -4225,10 +4234,10 @@
         <v>31</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4252,13 @@
         <v>1925</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4258,13 +4267,13 @@
         <v>2798</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4273,7 +4282,7 @@
         <v>4723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>292</v>
@@ -4285,7 +4294,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -4294,13 +4303,13 @@
         <v>1448</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>88</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4309,13 +4318,13 @@
         <v>1991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4324,13 +4333,13 @@
         <v>3439</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4354,13 @@
         <v>326078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>444</v>
@@ -4360,13 +4369,13 @@
         <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>918</v>
@@ -4375,18 +4384,18 @@
         <v>638252</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4405,7 +4414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ECBA3A-8F22-41EA-B25E-C9801587E531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F173C5BB-9E3C-426A-8D3E-493034969F63}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4422,7 +4431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4529,13 +4538,13 @@
         <v>19916</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4544,13 +4553,13 @@
         <v>17767</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -4559,13 +4568,13 @@
         <v>37683</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4589,13 @@
         <v>15282</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4595,13 +4604,13 @@
         <v>11658</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4610,13 +4619,13 @@
         <v>26940</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4640,13 @@
         <v>713</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4646,13 +4655,13 @@
         <v>1181</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4661,13 +4670,13 @@
         <v>1894</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,10 +4694,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4700,10 +4709,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4715,16 +4724,16 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -4733,13 +4742,13 @@
         <v>727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4751,10 +4760,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4763,13 +4772,13 @@
         <v>727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4793,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>44</v>
@@ -4799,13 +4808,13 @@
         <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -4814,18 +4823,18 @@
         <v>67244</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4837,13 +4846,13 @@
         <v>143695</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>211</v>
@@ -4852,13 +4861,13 @@
         <v>147084</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>405</v>
@@ -4867,13 +4876,13 @@
         <v>290779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4897,13 @@
         <v>83799</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>339</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -4903,13 +4912,13 @@
         <v>84508</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -4918,13 +4927,13 @@
         <v>168307</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4948,13 @@
         <v>8046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4954,13 +4963,13 @@
         <v>11124</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -4969,13 +4978,13 @@
         <v>19169</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>115</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4999,13 @@
         <v>759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5005,13 +5014,13 @@
         <v>524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5020,19 +5029,19 @@
         <v>1283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -5041,13 +5050,13 @@
         <v>764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5056,13 +5065,13 @@
         <v>759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5071,13 +5080,13 @@
         <v>1523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5101,13 @@
         <v>237063</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
         <v>349</v>
@@ -5107,13 +5116,13 @@
         <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>673</v>
@@ -5122,18 +5131,18 @@
         <v>481061</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5145,13 +5154,13 @@
         <v>47953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5160,13 +5169,13 @@
         <v>39886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -5175,13 +5184,13 @@
         <v>87839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5205,13 @@
         <v>26961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5211,13 +5220,13 @@
         <v>28624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -5226,13 +5235,13 @@
         <v>55586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5256,13 @@
         <v>588</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>34</v>
+        <v>377</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5262,13 +5271,13 @@
         <v>2579</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5277,13 +5286,13 @@
         <v>3167</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,10 +5310,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5316,10 +5325,10 @@
         <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5331,16 +5340,16 @@
         <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5352,10 +5361,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5367,10 +5376,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5382,10 +5391,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5409,13 @@
         <v>75502</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -5415,13 +5424,13 @@
         <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -5430,13 +5439,13 @@
         <v>146592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5462,13 @@
         <v>211565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>293</v>
@@ -5468,13 +5477,13 @@
         <v>204736</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
@@ -5483,13 +5492,13 @@
         <v>416301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5513,13 @@
         <v>126042</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7">
         <v>176</v>
@@ -5519,13 +5528,13 @@
         <v>124790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="M23" s="7">
         <v>352</v>
@@ -5534,13 +5543,13 @@
         <v>250833</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5564,13 @@
         <v>9347</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -5570,13 +5579,13 @@
         <v>14884</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -5585,13 +5594,13 @@
         <v>24231</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>403</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5615,13 @@
         <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5621,13 +5630,13 @@
         <v>524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5636,19 +5645,19 @@
         <v>1283</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -5657,13 +5666,13 @@
         <v>1490</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5672,13 +5681,13 @@
         <v>759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5687,13 +5696,13 @@
         <v>2250</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5717,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5723,13 +5732,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>973</v>
@@ -5738,18 +5747,18 @@
         <v>694897</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499BA4FB-31C0-42A5-AF31-CA1FA2108D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C67F344-0482-4FC8-9309-A96D8A8DD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{294BB6CC-409B-47C0-B0EA-C71C5C590FC2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E52915F-264B-40A7-B002-605568CFDA23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="417">
   <si>
     <t>Menores según frecuencia de sentirse  alegre en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1210 +73,1222 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
     <t>67,71%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>71,47%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
     <t>3,14%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>38,94%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB73E270-9C8B-46C6-94F6-0A2F0C22F3C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736099BA-B228-466F-BF18-6770A8931741}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1806,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>29269</v>
+        <v>33989</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1821,10 +1833,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>33989</v>
+        <v>29269</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1857,10 +1869,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>11983</v>
+        <v>7386</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1872,10 +1884,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>7386</v>
+        <v>11983</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1908,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>1358</v>
+        <v>1979</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1923,10 +1935,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1979</v>
+        <v>1358</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1959,34 +1971,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1931</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>613</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1931</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1995,19 +2007,19 @@
         <v>2544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2016,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2031,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2046,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,34 +2073,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45285</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>68</v>
-      </c>
-      <c r="I9" s="7">
-        <v>45285</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -2097,51 +2109,51 @@
         <v>88509</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>179</v>
+      </c>
+      <c r="D10" s="7">
+        <v>120387</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7">
         <v>215</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>142585</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="7">
-        <v>179</v>
-      </c>
-      <c r="I10" s="7">
-        <v>120387</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>394</v>
@@ -2150,13 +2162,13 @@
         <v>262972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,49 +2177,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7">
+        <v>64278</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="7">
         <v>100</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>66437</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="7">
-        <v>97</v>
-      </c>
-      <c r="I11" s="7">
-        <v>64278</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>197</v>
       </c>
       <c r="N11" s="7">
-        <v>130715</v>
+        <v>130714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,34 +2228,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5184</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>6946</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5184</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -2252,13 +2264,13 @@
         <v>12130</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,28 +2282,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>680</v>
+        <v>537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>537</v>
+        <v>680</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>85</v>
@@ -2306,7 +2318,7 @@
         <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>87</v>
@@ -2315,34 +2327,34 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>89</v>
@@ -2357,7 +2369,7 @@
         <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>91</v>
@@ -2369,49 +2381,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>217314</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407700</v>
+        <v>407699</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,10 +2434,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>33164</v>
+        <v>29407</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>93</v>
@@ -2437,10 +2449,10 @@
         <v>95</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>29407</v>
+        <v>33164</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>96</v>
@@ -2458,13 +2470,13 @@
         <v>62572</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,34 +2485,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20333</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="7">
         <v>20</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>12913</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="7">
-        <v>30</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20333</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -2509,13 +2521,13 @@
         <v>33246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,34 +2536,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4506</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1503</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4506</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2560,13 +2572,13 @@
         <v>6009</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,34 +2587,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>802</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2611,49 +2623,49 @@
         <v>802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>659</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2662,13 +2674,13 @@
         <v>659</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,34 +2689,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
@@ -2713,13 +2725,13 @@
         <v>103287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,34 +2742,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>272</v>
+      </c>
+      <c r="D22" s="7">
+        <v>183783</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="7">
         <v>308</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>205018</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="7">
-        <v>272</v>
-      </c>
-      <c r="I22" s="7">
-        <v>183783</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>580</v>
@@ -2766,13 +2778,13 @@
         <v>388801</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,31 +2796,31 @@
         <v>138</v>
       </c>
       <c r="D23" s="7">
-        <v>91333</v>
+        <v>91996</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
       </c>
       <c r="I23" s="7">
-        <v>91996</v>
+        <v>91333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>276</v>
@@ -2817,13 +2829,13 @@
         <v>183330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,34 +2844,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11669</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="7">
         <v>15</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9807</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="7">
-        <v>17</v>
-      </c>
-      <c r="I24" s="7">
-        <v>11669</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -2868,13 +2880,13 @@
         <v>21477</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,34 +2895,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2467</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2095</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2467</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2919,49 +2931,49 @@
         <v>4562</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1325</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2973,10 +2985,10 @@
         <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,34 +2997,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>431</v>
+      </c>
+      <c r="D27" s="7">
+        <v>289916</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>309578</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
-        <v>431</v>
-      </c>
-      <c r="I27" s="7">
-        <v>289916</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>897</v>
@@ -3021,18 +3033,18 @@
         <v>599495</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01612062-6219-4A01-8614-44FD050B3FB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572975C7-3476-43BC-9400-70375F34F3AD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3068,7 +3080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3169,34 +3181,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7">
+        <v>29860</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="7">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>26167</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="7">
-        <v>43</v>
-      </c>
-      <c r="I4" s="7">
-        <v>29860</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3205,13 +3217,13 @@
         <v>56027</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,34 +3232,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20373</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16897</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>20373</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3256,13 +3268,13 @@
         <v>37270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,34 +3283,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1392</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>651</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1392</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3307,13 +3319,13 @@
         <v>2044</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,34 +3334,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>192</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3358,49 +3370,49 @@
         <v>624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>823</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3412,7 +3424,7 @@
         <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>197</v>
@@ -3424,34 +3436,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -3460,27 +3472,27 @@
         <v>96787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="D10" s="7">
-        <v>139295</v>
+        <v>113288</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>198</v>
@@ -3492,10 +3504,10 @@
         <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="I10" s="7">
-        <v>113288</v>
+        <v>139295</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>201</v>
@@ -3528,10 +3540,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="7">
-        <v>77049</v>
+        <v>76886</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>207</v>
@@ -3543,10 +3555,10 @@
         <v>209</v>
       </c>
       <c r="H11" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I11" s="7">
-        <v>76886</v>
+        <v>77049</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>210</v>
@@ -3579,10 +3591,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>7216</v>
+        <v>6775</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>216</v>
@@ -3594,16 +3606,16 @@
         <v>218</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>6775</v>
+        <v>7216</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>220</v>
@@ -3618,7 +3630,7 @@
         <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>222</v>
@@ -3630,34 +3642,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>580</v>
+        <v>2798</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>224</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>2798</v>
+        <v>580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3669,43 +3681,43 @@
         <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>625</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>89</v>
@@ -3720,7 +3732,7 @@
         <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>230</v>
@@ -3732,34 +3744,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>224765</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199748</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>614</v>
@@ -3768,13 +3780,13 @@
         <v>424513</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +3797,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>33369</v>
+        <v>39158</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>231</v>
@@ -3800,10 +3812,10 @@
         <v>233</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>39158</v>
+        <v>33369</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>234</v>
@@ -3824,10 +3836,10 @@
         <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,34 +3848,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17614</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="7">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>20072</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" s="7">
-        <v>24</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17614</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -3872,13 +3884,13 @@
         <v>37687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,31 +3902,31 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>1989</v>
+        <v>2038</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2038</v>
+        <v>1989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -3923,13 +3935,13 @@
         <v>4026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,34 +3950,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>722</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3974,49 +3986,49 @@
         <v>722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1991</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1991</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4025,13 +4037,13 @@
         <v>1991</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,34 +4052,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -4076,13 +4088,13 @@
         <v>116953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,34 +4105,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>259</v>
+      </c>
+      <c r="D22" s="7">
+        <v>182306</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="7">
         <v>291</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>198830</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H22" s="7">
-        <v>259</v>
-      </c>
-      <c r="I22" s="7">
-        <v>182306</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>550</v>
@@ -4129,13 +4141,13 @@
         <v>381137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,31 +4159,31 @@
         <v>163</v>
       </c>
       <c r="D23" s="7">
-        <v>114019</v>
+        <v>114874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>163</v>
       </c>
       <c r="I23" s="7">
-        <v>114874</v>
+        <v>114019</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>326</v>
@@ -4180,13 +4192,13 @@
         <v>228892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,31 +4210,31 @@
         <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>9856</v>
+        <v>10205</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>10205</v>
+        <v>9856</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -4231,13 +4243,13 @@
         <v>20061</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,34 +4258,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2798</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1925</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2798</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4282,49 +4294,49 @@
         <v>4723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1991</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1448</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1991</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4333,13 +4345,13 @@
         <v>3439</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,34 +4360,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>444</v>
+      </c>
+      <c r="D27" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326078</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
-        <v>444</v>
-      </c>
-      <c r="I27" s="7">
-        <v>312174</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>918</v>
@@ -4384,18 +4396,18 @@
         <v>638252</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F173C5BB-9E3C-426A-8D3E-493034969F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF68956-E48D-4011-A183-CFE0CA5655E5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4431,7 +4443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4532,34 +4544,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17767</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="7">
         <v>27</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>19916</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H4" s="7">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17767</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -4568,13 +4580,13 @@
         <v>37683</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,34 +4595,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11658</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="7">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>15282</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="7">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11658</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4619,13 +4631,13 @@
         <v>26940</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,34 +4646,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1181</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>713</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1181</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4670,13 +4682,13 @@
         <v>1894</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4706,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4721,49 +4733,49 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>727</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4772,13 +4784,13 @@
         <v>727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,34 +4799,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -4823,51 +4835,51 @@
         <v>67244</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>211</v>
+      </c>
+      <c r="D10" s="7">
+        <v>147084</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="7">
         <v>194</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>143695</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="7">
-        <v>211</v>
-      </c>
-      <c r="I10" s="7">
-        <v>147084</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>405</v>
@@ -4876,13 +4888,13 @@
         <v>290779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,34 +4903,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>120</v>
+      </c>
+      <c r="D11" s="7">
+        <v>84508</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="7">
         <v>117</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>83799</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H11" s="7">
-        <v>120</v>
-      </c>
-      <c r="I11" s="7">
-        <v>84508</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -4927,13 +4939,13 @@
         <v>168307</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,34 +4954,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>8046</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H12" s="7">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11124</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -4978,13 +4990,13 @@
         <v>19169</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,31 +5008,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>759</v>
+        <v>524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5029,49 +5041,49 @@
         <v>1283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5080,13 +5092,13 @@
         <v>1523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,34 +5107,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>349</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>324</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237063</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243998</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>673</v>
@@ -5131,13 +5143,13 @@
         <v>481061</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,34 +5160,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7">
+        <v>39886</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="7">
         <v>67</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>47953</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>39886</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -5184,13 +5196,13 @@
         <v>87839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,34 +5211,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7">
+        <v>28624</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H17" s="7">
         <v>37</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26961</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H17" s="7">
-        <v>39</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28624</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -5235,13 +5247,13 @@
         <v>55586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,34 +5262,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2579</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>588</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2579</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>378</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5286,13 +5298,13 @@
         <v>3167</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>382</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5319,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5322,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5337,19 +5349,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5358,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5373,13 +5385,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5388,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,34 +5415,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -5439,13 +5451,13 @@
         <v>146592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,34 +5468,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>293</v>
+      </c>
+      <c r="D22" s="7">
+        <v>204736</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H22" s="7">
         <v>288</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>211565</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H22" s="7">
-        <v>293</v>
-      </c>
-      <c r="I22" s="7">
-        <v>204736</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
@@ -5492,13 +5504,13 @@
         <v>416301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,31 +5522,31 @@
         <v>176</v>
       </c>
       <c r="D23" s="7">
-        <v>126042</v>
+        <v>124790</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
         <v>176</v>
       </c>
       <c r="I23" s="7">
-        <v>124790</v>
+        <v>126042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>352</v>
@@ -5543,13 +5555,13 @@
         <v>250833</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>401</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,34 +5570,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14884</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H24" s="7">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9347</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H24" s="7">
-        <v>22</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14884</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -5594,13 +5606,13 @@
         <v>24231</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,31 +5624,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>759</v>
+        <v>524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5645,49 +5657,49 @@
         <v>1283</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>759</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1490</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>759</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5696,13 +5708,13 @@
         <v>2250</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,34 +5723,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>493</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
-        <v>493</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345694</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>973</v>
@@ -5747,18 +5759,18 @@
         <v>694897</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
